--- a/output/prosalus.xlsx
+++ b/output/prosalus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -534,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +552,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,10 +661,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -754,15 +772,24 @@
         <v>0.09242578712884228</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>402386</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -861,15 +888,24 @@
         <v>0.09242578712884228</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>1849367</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -968,15 +1004,24 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>762839</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1075,15 +1120,24 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>1432531</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1182,15 +1236,24 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>363151</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1289,15 +1352,24 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>531707</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1396,15 +1468,24 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>964030</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1503,15 +1584,24 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>1997612</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1610,15 +1700,24 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>164034</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1717,15 +1816,24 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>486270</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1824,15 +1932,24 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>377914.09</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1931,15 +2048,24 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>164034</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2038,15 +2164,24 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>486270</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2145,15 +2280,24 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>377914.09</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2252,15 +2396,24 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>217089</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2359,15 +2512,24 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>154430</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2466,15 +2628,24 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>84937.5</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2573,15 +2744,24 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>217089</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2680,15 +2860,24 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>154430</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2787,15 +2976,24 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>84937.5</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2894,15 +3092,24 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>377588</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3001,15 +3208,24 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>268583</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3108,15 +3324,24 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>110568</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3215,9 +3440,18 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1985</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>9170</v>
       </c>
     </row>

--- a/output/prosalus.xlsx
+++ b/output/prosalus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +558,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,10 +676,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -772,24 +784,30 @@
         <v>0.09242578712884228</v>
       </c>
       <c r="AI2">
+        <v>0.2882094989487521</v>
+      </c>
+      <c r="AJ2">
         <v>1985</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>402386</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -888,24 +906,30 @@
         <v>0.09242578712884228</v>
       </c>
       <c r="AI3">
+        <v>0.2882094989487521</v>
+      </c>
+      <c r="AJ3">
         <v>1985</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>1849367</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1004,24 +1028,30 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI4">
+        <v>0.8529427880043968</v>
+      </c>
+      <c r="AJ4">
         <v>1985</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>762839</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1120,24 +1150,30 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI5">
+        <v>0.8529427880043968</v>
+      </c>
+      <c r="AJ5">
         <v>1985</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>1432531</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1236,24 +1272,30 @@
         <v>0.02719952547188685</v>
       </c>
       <c r="AI6">
+        <v>0.8529427880043968</v>
+      </c>
+      <c r="AJ6">
         <v>1985</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>363151</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1352,24 +1394,30 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI7">
+        <v>0.4032227968727618</v>
+      </c>
+      <c r="AJ7">
         <v>1985</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>531707</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1468,24 +1516,30 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI8">
+        <v>0.4032227968727618</v>
+      </c>
+      <c r="AJ8">
         <v>1985</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>964030</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1584,24 +1638,30 @@
         <v>0.2495080706568859</v>
       </c>
       <c r="AI9">
+        <v>0.4032227968727618</v>
+      </c>
+      <c r="AJ9">
         <v>1985</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>1997612</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1700,24 +1760,30 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI10">
+        <v>0.4105496990465558</v>
+      </c>
+      <c r="AJ10">
         <v>1985</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>164034</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1816,24 +1882,30 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI11">
+        <v>0.4105496990465558</v>
+      </c>
+      <c r="AJ11">
         <v>1985</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>486270</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1932,24 +2004,30 @@
         <v>0.1633578310446201</v>
       </c>
       <c r="AI12">
+        <v>0.4105496990465558</v>
+      </c>
+      <c r="AJ12">
         <v>1985</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>377914.09</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2048,24 +2126,30 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI13">
+        <v>0.1649115964480611</v>
+      </c>
+      <c r="AJ13">
         <v>1985</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>164034</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2164,24 +2248,30 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI14">
+        <v>0.1649115964480611</v>
+      </c>
+      <c r="AJ14">
         <v>1985</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>486270</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2280,24 +2370,30 @@
         <v>0.4865932860982545</v>
       </c>
       <c r="AI15">
+        <v>0.1649115964480611</v>
+      </c>
+      <c r="AJ15">
         <v>1985</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>377914.09</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2396,24 +2492,30 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI16">
+        <v>0.4358522141696224</v>
+      </c>
+      <c r="AJ16">
         <v>1985</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>217089</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2512,24 +2614,30 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI17">
+        <v>0.4358522141696224</v>
+      </c>
+      <c r="AJ17">
         <v>1985</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>154430</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2628,24 +2736,30 @@
         <v>0.2006017022276631</v>
       </c>
       <c r="AI18">
+        <v>0.4358522141696224</v>
+      </c>
+      <c r="AJ18">
         <v>1985</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>84937.5</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2744,24 +2858,30 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI19">
+        <v>0.4225230685431963</v>
+      </c>
+      <c r="AJ19">
         <v>1985</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>217089</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2860,24 +2980,30 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI20">
+        <v>0.4225230685431963</v>
+      </c>
+      <c r="AJ20">
         <v>1985</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>154430</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2976,24 +3102,30 @@
         <v>0.2145704730452715</v>
       </c>
       <c r="AI21">
+        <v>0.4225230685431963</v>
+      </c>
+      <c r="AJ21">
         <v>1985</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>84937.5</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3092,24 +3224,30 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI22">
+        <v>0.3895179633595051</v>
+      </c>
+      <c r="AJ22">
         <v>1985</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>377588</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3208,24 +3346,30 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI23">
+        <v>0.3895179633595051</v>
+      </c>
+      <c r="AJ23">
         <v>1985</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>268583</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3324,24 +3468,30 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI24">
+        <v>0.3895179633595051</v>
+      </c>
+      <c r="AJ24">
         <v>1985</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>110568</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3440,18 +3590,24 @@
         <v>0.4759267190102308</v>
       </c>
       <c r="AI25">
+        <v>0.3895179633595051</v>
+      </c>
+      <c r="AJ25">
         <v>1985</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>9170</v>
       </c>
     </row>

--- a/output/prosalus.xlsx
+++ b/output/prosalus.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D2">
         <v>175371</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D3">
         <v>270000</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D4">
         <v>349856</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D5">
         <v>3011227</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D6">
         <v>2710000</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D7">
         <v>349856</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D8">
         <v>202871</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D9">
         <v>3011227</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D10">
         <v>357020</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D11">
         <v>202871</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D13">
         <v>357020</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D14">
         <v>190000</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D16">
         <v>221957</v>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D17">
         <v>220000</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D19">
         <v>221957</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D20">
         <v>228431</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D22">
         <v>289535</v>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D23">
         <v>324394</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D25">
         <v>0</v>

--- a/output/prosalus.xlsx
+++ b/output/prosalus.xlsx
@@ -1304,7 +1304,7 @@
         <v>492.3430015592067</v>
       </c>
       <c r="D7">
-        <v>349856</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>762839</v>
@@ -1548,7 +1548,7 @@
         <v>5360.226632400601</v>
       </c>
       <c r="D9">
-        <v>3011227</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1432531</v>
@@ -1792,7 +1792,7 @@
         <v>2094.024217383061</v>
       </c>
       <c r="D11">
-        <v>202871</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>964030</v>
@@ -2036,10 +2036,10 @@
         <v>534.5063430177229</v>
       </c>
       <c r="D13">
-        <v>357020</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>164034</v>
+        <v>531707</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>190000</v>
       </c>
       <c r="E14">
-        <v>486270</v>
+        <v>964030</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>377914.09</v>
+        <v>1997612</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2768,10 +2768,10 @@
         <v>2361.056581219794</v>
       </c>
       <c r="D19">
-        <v>221957</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>217089</v>
+        <v>486270</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>59</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>579.0880693780265</v>
@@ -2893,7 +2893,7 @@
         <v>228431</v>
       </c>
       <c r="E20">
-        <v>154430</v>
+        <v>164034</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>84937.5</v>
+        <v>377914.09</v>
       </c>
       <c r="F21">
         <v>1</v>
